--- a/medicine/Enfance/Fatou_Ndiaye_Sow/Fatou_Ndiaye_Sow.xlsx
+++ b/medicine/Enfance/Fatou_Ndiaye_Sow/Fatou_Ndiaye_Sow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fatou Ndiaye Sow (1937 - 24 ou 25 octobre 2004[1]) est une femme de lettres sénégalaise, connue pour sa poésie et ses nombreux ouvrages pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fatou Ndiaye Sow (1937 - 24 ou 25 octobre 2004) est une femme de lettres sénégalaise, connue pour sa poésie et ses nombreux ouvrages pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fatou Ndiaye Sow naît à Tivaouane en 1937. Son père, commerçant, est originaire de  Kaolack. Devenue orpheline très tôt, elle est élevée par ses grands parents. Elle commence sa scolarité à l'école coranique, puis à l'école élémentaire de Tivaouane avant de poursuivre ses études au collège Ameth Fall de Saint-Louis et à l'École normale de Rufisque[1]. Exerçant tout d'abord le métier d'institutrice, elle écrit en 1982 son premier ouvrage de poésie destiné aux enfants, Takam-Takam, au titre en wolof. Après un second ouvrage dans la même veine en 1988, Takam Tikou, elle a ensuite jusqu'à sa mort une une production régulière et variée, constituée de berceuses, de récits, de textes didactiques pour l’éducation à la citoyenneté et la défense des droits de l’enfant[2].
-Considérée comme une pionnière de la poésie pour enfants après Annette Mbaye d'Erneville, elle considère ce public comme prioritaire pour développer la lecture dans son pays. En 1995, elle fonde une maison d'édition spécialement destinée à la jeunesse, Falia édition enfance[3].
-Elle participe à de nombreuses rencontres internationales : 7e Congrès des poètes à Marrakech en 1984, Soirées poétiques de Struga en Yougoslavie en 1985, Festival de poésie de Louvain en Belgique en 1986, Symposium littéraire contre l'apartheid de Brazzaville en 1987, 5e Congrès mondial du PEN-International à Toronto en 1989, Salon des poètes de Lyon en 1990, aux États-Unis en 1997[1], « Yari Yari, Blacks women writers and the future » à l'Université de New-York en 1999[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fatou Ndiaye Sow naît à Tivaouane en 1937. Son père, commerçant, est originaire de  Kaolack. Devenue orpheline très tôt, elle est élevée par ses grands parents. Elle commence sa scolarité à l'école coranique, puis à l'école élémentaire de Tivaouane avant de poursuivre ses études au collège Ameth Fall de Saint-Louis et à l'École normale de Rufisque. Exerçant tout d'abord le métier d'institutrice, elle écrit en 1982 son premier ouvrage de poésie destiné aux enfants, Takam-Takam, au titre en wolof. Après un second ouvrage dans la même veine en 1988, Takam Tikou, elle a ensuite jusqu'à sa mort une une production régulière et variée, constituée de berceuses, de récits, de textes didactiques pour l’éducation à la citoyenneté et la défense des droits de l’enfant.
+Considérée comme une pionnière de la poésie pour enfants après Annette Mbaye d'Erneville, elle considère ce public comme prioritaire pour développer la lecture dans son pays. En 1995, elle fonde une maison d'édition spécialement destinée à la jeunesse, Falia édition enfance.
+Elle participe à de nombreuses rencontres internationales : 7e Congrès des poètes à Marrakech en 1984, Soirées poétiques de Struga en Yougoslavie en 1985, Festival de poésie de Louvain en Belgique en 1986, Symposium littéraire contre l'apartheid de Brazzaville en 1987, 5e Congrès mondial du PEN-International à Toronto en 1989, Salon des poètes de Lyon en 1990, aux États-Unis en 1997, « Yari Yari, Blacks women writers and the future » à l'Université de New-York en 1999.
 Membre fondatrice du Comité international des femmes écrivains PEN (IPWWC), elle est décédée subitement le 23 octobre 2004, alors qu'elle participait à un congrès de femmes écrivains africaines à New York.
 </t>
         </is>
@@ -547,10 +561,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-Fleurs du Sahel, Dakar, Les Nouvelles Éditions Africaines du Sénégal, 1990, 47 p.  (ISBN 2 7236 1063 2)
-Littérature pour enfants
-Takam-Takam « Devine mon enfant, devine », Illustrations Djibathen Sambou, Dakar, NEA, 1982  (ISBN 2-7236-0801-8)
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fleurs du Sahel, Dakar, Les Nouvelles Éditions Africaines du Sénégal, 1990, 47 p.  (ISBN 2 7236 1063 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fatou_Ndiaye_Sow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fatou_Ndiaye_Sow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Takam-Takam « Devine mon enfant, devine », Illustrations Djibathen Sambou, Dakar, NEA, 1982  (ISBN 2-7236-0801-8)
 Takam-Tikou, « J’ai deviné », Illustrations Ibou Gueye, Nouvelles éditions Fulgore, 1988
 Takam-Tikou, Illustrations Taofik Atoro, Cotonou, Le Flamboyant, 1993.
 Le Mouton d'Aminata, Illustrations Moustapha Ndiaye, Abidjan, NEI, 1996  (ISBN 2-910190-84-6)
@@ -576,33 +629,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Fatou_Ndiaye_Sow</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fatou_Ndiaye_Sow</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Jeanne de Cavally pour la littérature enfantine en 2003 pour Louty, l'enfant du village[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Jeanne de Cavally pour la littérature enfantine en 2003 pour Louty, l'enfant du village.</t>
         </is>
       </c>
     </row>
